--- a/Koe 231.xlsx
+++ b/Koe 231.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31611\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181314B8-451B-46EB-8BF3-750E1755C8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517EABEC-44CB-4FEE-B13D-AC8E625CC2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2618,8 +2618,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q506"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G454" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9" x14ac:dyDescent="0.15"/>
@@ -2735,7 +2735,9 @@
       <c r="M2" s="6">
         <v>0</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="N2" s="4">
+        <v>472</v>
+      </c>
       <c r="O2" s="6">
         <v>5.16</v>
       </c>
@@ -4318,8 +4320,12 @@
       <c r="N32" s="6">
         <v>451</v>
       </c>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="O32" s="6">
+        <v>3.77</v>
+      </c>
+      <c r="P32" s="6">
+        <v>3.64</v>
+      </c>
       <c r="Q32" s="4">
         <v>4.59</v>
       </c>
@@ -4367,8 +4373,12 @@
       <c r="N33" s="4">
         <v>453</v>
       </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="O33" s="6">
+        <v>3.77</v>
+      </c>
+      <c r="P33" s="6">
+        <v>3.64</v>
+      </c>
       <c r="Q33" s="4">
         <v>4.59</v>
       </c>
@@ -29051,19 +29061,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId3" name="Control 25">
+        <control shapeId="2053" r:id="rId3" name="Control 5">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>503</xdr:row>
+                <xdr:row>504</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>504</xdr:row>
+                <xdr:row>505</xdr:row>
                 <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
@@ -29071,12 +29081,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2073" r:id="rId3" name="Control 25"/>
+        <control shapeId="2053" r:id="rId3" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId5" name="Control 24">
+        <control shapeId="2054" r:id="rId5" name="Control 6">
           <controlPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
@@ -29096,12 +29106,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2072" r:id="rId5" name="Control 24"/>
+        <control shapeId="2054" r:id="rId5" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId7" name="Control 23">
+        <control shapeId="2055" r:id="rId7" name="Control 7">
           <controlPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
@@ -29121,12 +29131,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2071" r:id="rId7" name="Control 23"/>
+        <control shapeId="2055" r:id="rId7" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId9" name="Control 22">
+        <control shapeId="2056" r:id="rId9" name="Control 8">
           <controlPr defaultSize="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
@@ -29146,12 +29156,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2070" r:id="rId9" name="Control 22"/>
+        <control shapeId="2056" r:id="rId9" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId11" name="Control 21">
+        <control shapeId="2057" r:id="rId11" name="Control 9">
           <controlPr defaultSize="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
@@ -29171,12 +29181,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId11" name="Control 21"/>
+        <control shapeId="2057" r:id="rId11" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId13" name="Control 20">
+        <control shapeId="2058" r:id="rId13" name="Control 10">
           <controlPr defaultSize="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
@@ -29196,12 +29206,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2068" r:id="rId13" name="Control 20"/>
+        <control shapeId="2058" r:id="rId13" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId15" name="Control 19">
+        <control shapeId="2059" r:id="rId15" name="Control 11">
           <controlPr defaultSize="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
@@ -29221,12 +29231,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId15" name="Control 19"/>
+        <control shapeId="2059" r:id="rId15" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId17" name="Control 18">
+        <control shapeId="2060" r:id="rId17" name="Control 12">
           <controlPr defaultSize="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
@@ -29246,12 +29256,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2066" r:id="rId17" name="Control 18"/>
+        <control shapeId="2060" r:id="rId17" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId19" name="Control 17">
+        <control shapeId="2061" r:id="rId19" name="Control 13">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
@@ -29271,12 +29281,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId19" name="Control 17"/>
+        <control shapeId="2061" r:id="rId19" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId21" name="Control 16">
+        <control shapeId="2062" r:id="rId21" name="Control 14">
           <controlPr defaultSize="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
@@ -29296,7 +29306,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId21" name="Control 16"/>
+        <control shapeId="2062" r:id="rId21" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -29326,7 +29336,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId25" name="Control 14">
+        <control shapeId="2064" r:id="rId25" name="Control 16">
           <controlPr defaultSize="0" r:id="rId26">
             <anchor moveWithCells="1">
               <from>
@@ -29346,13 +29356,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId25" name="Control 14"/>
+        <control shapeId="2064" r:id="rId25" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId27" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId16">
+        <control shapeId="2065" r:id="rId27" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId28">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29371,13 +29381,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId27" name="Control 13"/>
+        <control shapeId="2065" r:id="rId27" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId28" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId29">
+        <control shapeId="2066" r:id="rId29" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId30">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29396,13 +29406,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId28" name="Control 12"/>
+        <control shapeId="2066" r:id="rId29" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId30" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId31">
+        <control shapeId="2067" r:id="rId31" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29421,12 +29431,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2059" r:id="rId30" name="Control 11"/>
+        <control shapeId="2067" r:id="rId31" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId32" name="Control 10">
+        <control shapeId="2068" r:id="rId32" name="Control 20">
           <controlPr defaultSize="0" r:id="rId33">
             <anchor moveWithCells="1">
               <from>
@@ -29446,12 +29456,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2058" r:id="rId32" name="Control 10"/>
+        <control shapeId="2068" r:id="rId32" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId34" name="Control 9">
+        <control shapeId="2069" r:id="rId34" name="Control 21">
           <controlPr defaultSize="0" r:id="rId35">
             <anchor moveWithCells="1">
               <from>
@@ -29471,12 +29481,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId34" name="Control 9"/>
+        <control shapeId="2069" r:id="rId34" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId36" name="Control 8">
+        <control shapeId="2070" r:id="rId36" name="Control 22">
           <controlPr defaultSize="0" r:id="rId37">
             <anchor moveWithCells="1">
               <from>
@@ -29496,12 +29506,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId36" name="Control 8"/>
+        <control shapeId="2070" r:id="rId36" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId38" name="Control 7">
+        <control shapeId="2071" r:id="rId38" name="Control 23">
           <controlPr defaultSize="0" r:id="rId39">
             <anchor moveWithCells="1">
               <from>
@@ -29521,12 +29531,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId38" name="Control 7"/>
+        <control shapeId="2071" r:id="rId38" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId40" name="Control 6">
+        <control shapeId="2072" r:id="rId40" name="Control 24">
           <controlPr defaultSize="0" r:id="rId41">
             <anchor moveWithCells="1">
               <from>
@@ -29546,24 +29556,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId40" name="Control 6"/>
+        <control shapeId="2072" r:id="rId40" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId42" name="Control 5">
+        <control shapeId="2073" r:id="rId42" name="Control 25">
           <controlPr defaultSize="0" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>504</xdr:row>
+                <xdr:row>503</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>505</xdr:row>
+                <xdr:row>504</xdr:row>
                 <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
@@ -29571,7 +29581,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId42" name="Control 5"/>
+        <control shapeId="2073" r:id="rId42" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
